--- a/examples/sources/data/unsolved/to_schedule/2019-04-12.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-12.xlsx
@@ -2582,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
         <v>43567</v>
@@ -4967,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" s="2">
         <v>43567</v>
